--- a/output/MTO_Output.xlsx
+++ b/output/MTO_Output.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,10 +27,18 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -41,6 +49,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DDEBF7"/>
         <bgColor rgb="00DDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,15 +76,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -438,740 +471,906 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="95" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="95" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Project No</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Doc.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Serial No</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Rev.</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Client Number</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Client Project</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Material Take-Off (Design Allowance: 17.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>TPENG ITEM CODE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>BILL OF MATERIAL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>WBS01</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>WBS02</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>DESIGN ALLOWANCE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>GRAND TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>16CONF140138</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>REDUCER, CONDUIT, 1 1/2" X 3/4"</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="n">
         <v>29400</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F9" s="9" t="n">
         <v>18816</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="G9" s="9" t="n">
         <v>48216</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>4821.6</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>53037.6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="H9" s="10" t="n">
+        <v>8196.719999999999</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>56412.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>16CONF150181</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>FITTING, CONDUIT BODY 3/4", TYPE "T", FORM 8, IRON ALLOY WITH COVER AND GASKET</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="G10" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>712.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="H10" s="10" t="n">
+        <v>110.16</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>758.16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>16CONF150185</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>FITTING, CONDUIT BODY 1 1/2", TYPE "T", FORM 8, IRON ALLOY WITH COVER AND GASKET</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="n">
         <v>14700</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F11" s="9" t="n">
         <v>9408</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="G11" s="9" t="n">
         <v>24108</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>2410.8</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>26518.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="H11" s="10" t="n">
+        <v>4098.36</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>28206.36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>16CONF990200</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>UNION, CONDUIT, 1 1/2", TYPE "UNY" MALE/FEMALE</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="n">
         <v>14700</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F12" s="9" t="n">
         <v>9408</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G12" s="9" t="n">
         <v>24108</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>2410.8</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>26518.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="H12" s="10" t="n">
+        <v>4098.36</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>28206.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>16CONF990203</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>UNION, CONDUIT, 3/4", TYPE "UNY" MALE/FEMALE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="G13" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>712.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="H13" s="10" t="n">
+        <v>110.16</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>758.16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>16CONF990216</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>NIPPLE, CONDUIT, 3/4" X CLOSE</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="G14" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>712.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="H14" s="10" t="n">
+        <v>110.16</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>758.16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>16CONS050020</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>CONDUIT 3/4", RIGID GALVANIZED STEEL</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="E15" s="9" t="n">
         <v>2106</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="F15" s="9" t="n">
         <v>4050</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="G15" s="9" t="n">
         <v>6156</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>615.6</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>6771.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="H15" s="10" t="n">
+        <v>1046.52</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>7202.52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>16CONS050022</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>CONDUIT 1 1/2", RIGID GALVANIZED STEEL</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="E16" s="9" t="n">
         <v>147000</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="F16" s="9" t="n">
         <v>94080</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="G16" s="9" t="n">
         <v>241080</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="H16" s="10" t="n">
+        <v>40983.6</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>282063.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260006</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>SPRING NUT 1/4-20 316SS</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>162</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>4212</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>716.04</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>4928.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260009</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>STUD, THREADED, 3/8", X-BT-MR W10/15 SN 8, WITH NUT, 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>8100</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>9720</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>1652.4</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>11372.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260044</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>MACHINE BOLT 1/4" X 1 1/2", HEX HEAD NC THREADS 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>162</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>4212</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>716.04</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>4928.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260049</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>NUT, HEX HEAD, 1/4" 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>37632</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>96432</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>16393.44</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>112825.44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260060</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>WASHER, FLAT 1/4" 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>58962</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>41682</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>100644</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>17109.48</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>117753.48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260069</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>WASHER, LOCK 1/4" 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>58962</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>41682</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>100644</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>17109.48</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>117753.48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>16HWRX260123</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>U-BOLT, 1/4" X 1 1/2", 1 1/2" PIPE, 316 STAINLESS STEEL</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>29400</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>18816</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>48216</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>8196.719999999999</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>56412.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>16LTGC990031</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>LED, CHAMP VMV, CEILING MOUNT, 29W, CL. I, DIV. 2, A,B,C,D, 120-277VAC, 5000K, 3/4" HUB</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>2106</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>358.02</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>2464.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>16LTGH990110</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>LED LINEAR , PENDANT MOUNT , 60W, CL. I, DIV. 2, A,B,C,D, 100-240VAC, 5700K</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>648</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>648</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>110.16</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>758.16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>16LTGS990039</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>LED, CHAMP VMV, STANCHION MOUNT,25 DEG. ANGLE, 29W, CL. I, DIV. 2, A,B,C,D, 120-277VAC, 5000K</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>14700</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>9408</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>24108</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>265188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260006</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>SPRING NUT 1/4-20 316SS</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>4050</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>4212</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>421.2</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>4633.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260009</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>STUD, THREADED, 3/8", X-BT-MR W10/15 SN 8, WITH NUT, 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1620</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>8100</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>9720</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>972</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>10692</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260044</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>MACHINE BOLT 1/4" X 1 1/2", HEX HEAD NC THREADS 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>4050</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>4212</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>421.2</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>4633.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260049</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>NUT, HEX HEAD, 1/4" 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>58800</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>37632</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>96432</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>9643.200000000001</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>106075.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260060</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>WASHER, FLAT 1/4" 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>58962</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>41682</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>100644</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>10064.4</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>110708.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260069</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>WASHER, LOCK 1/4" 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>58962</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>41682</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>100644</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>10064.4</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>110708.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>16HWRX260123</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>U-BOLT, 1/4" X 1 1/2", 1 1/2" PIPE, 316 STAINLESS STEEL</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="H26" s="10" t="n">
+        <v>4098.36</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>28206.36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>16SPTS060009</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>STEEL, ANGLE, L3 X 3 X 1/4, ASTM A36, HDG</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="n">
         <v>29400</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="F27" s="9" t="n">
         <v>18816</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="G27" s="9" t="n">
         <v>48216</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>4821.6</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>53037.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>16LTGC990031</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>LED, CHAMP VMV, CEILING MOUNT, 29W, CL. I, DIV. 2, A,B,C,D, 120-277VAC, 5000K, 3/4" HUB</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>81</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>2106</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>210.6</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>2316.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>16LTGH990110</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>LED LINEAR , PENDANT MOUNT , 60W, CL. I, DIV. 2, A,B,C,D, 100-240VAC, 5700K</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>648</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>648</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>712.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>16LTGS990039</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>LED, CHAMP VMV, STANCHION MOUNT,25 DEG. ANGLE, 29W, CL. I, DIV. 2, A,B,C,D, 120-277VAC, 5000K</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>14700</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>9408</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>24108</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>2410.8</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>26518.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>16SPTS060009</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>STEEL, ANGLE, L3 X 3 X 1/4, ASTM A36, HDG</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="H27" s="10" t="n">
+        <v>8196.719999999999</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>56412.72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>16STUA260014</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>CONDUIT STRAP, 3/4" SS WITH SS6 HARDWARE, USE WITH 1 5/8" STRUT CHANNEL</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>30858</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>22866</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>53724</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>9133.08</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>62857.08</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>16STUS060064</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>STRUT CHANNEL, 1 5/8" X 1 5/8" HDG SLOTTED</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>29400</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>18816</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>48216</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>4821.6</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>53037.6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>16STUA260014</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>CONDUIT STRAP, 3/4" SS WITH SS6 HARDWARE, USE WITH 1 5/8" STRUT CHANNEL</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>30858</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>22866</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>53724</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>5372.4</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>59096.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>16STUS060064</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>STRUT CHANNEL, 1 5/8" X 1 5/8" HDG SLOTTED</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="E29" s="9" t="n">
         <v>45720</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="F29" s="9" t="n">
         <v>36324</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="G29" s="9" t="n">
         <v>82044</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>8204.4</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>90248.39999999999</v>
+      <c r="H29" s="10" t="n">
+        <v>13947.48</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>95991.48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I6:N6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>